--- a/natmiOut/OldD0/LR-pairs_lrc2p/Fn1-Itga5.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Fn1-Itga5.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.5477615340025</v>
+        <v>27.03890566666666</v>
       </c>
       <c r="H2">
-        <v>25.5477615340025</v>
+        <v>81.11671699999999</v>
       </c>
       <c r="I2">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033728</v>
       </c>
       <c r="J2">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033729</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.7460091107335</v>
+        <v>34.07074633333333</v>
       </c>
       <c r="N2">
-        <v>31.7460091107335</v>
+        <v>102.212239</v>
       </c>
       <c r="O2">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142372</v>
       </c>
       <c r="P2">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142373</v>
       </c>
       <c r="Q2">
-        <v>811.0394704172902</v>
+        <v>921.235696099929</v>
       </c>
       <c r="R2">
-        <v>811.0394704172902</v>
+        <v>8291.121264899361</v>
       </c>
       <c r="S2">
-        <v>0.0340931418465408</v>
+        <v>0.0366976854255805</v>
       </c>
       <c r="T2">
-        <v>0.0340931418465408</v>
+        <v>0.03669768542558052</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.5477615340025</v>
+        <v>27.03890566666666</v>
       </c>
       <c r="H3">
-        <v>25.5477615340025</v>
+        <v>81.11671699999999</v>
       </c>
       <c r="I3">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033728</v>
       </c>
       <c r="J3">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033729</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.6186633346548</v>
+        <v>27.685497</v>
       </c>
       <c r="N3">
-        <v>27.6186633346548</v>
+        <v>83.05649099999999</v>
       </c>
       <c r="O3">
-        <v>0.4358057162585005</v>
+        <v>0.420227262899125</v>
       </c>
       <c r="P3">
-        <v>0.4358057162585005</v>
+        <v>0.4202272628991251</v>
       </c>
       <c r="Q3">
-        <v>705.5950247616591</v>
+        <v>748.5855417177829</v>
       </c>
       <c r="R3">
-        <v>705.5950247616591</v>
+        <v>6737.269875460046</v>
       </c>
       <c r="S3">
-        <v>0.02966064185881806</v>
+        <v>0.0298201175230156</v>
       </c>
       <c r="T3">
-        <v>0.02966064185881806</v>
+        <v>0.02982011752301561</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.5477615340025</v>
+        <v>27.03890566666666</v>
       </c>
       <c r="H4">
-        <v>25.5477615340025</v>
+        <v>81.11671699999999</v>
       </c>
       <c r="I4">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033728</v>
       </c>
       <c r="J4">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033729</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.00912533718287</v>
+        <v>4.125957666666666</v>
       </c>
       <c r="N4">
-        <v>4.00912533718287</v>
+        <v>12.377873</v>
       </c>
       <c r="O4">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="P4">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="Q4">
-        <v>102.4241780742753</v>
+        <v>111.5613801336601</v>
       </c>
       <c r="R4">
-        <v>102.4241780742753</v>
+        <v>1004.052421202941</v>
       </c>
       <c r="S4">
-        <v>0.004305538952136279</v>
+        <v>0.004444079241741164</v>
       </c>
       <c r="T4">
-        <v>0.004305538952136279</v>
+        <v>0.004444079241741164</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>341.49718029295</v>
+        <v>345.566579</v>
       </c>
       <c r="H5">
-        <v>341.49718029295</v>
+        <v>1036.699737</v>
       </c>
       <c r="I5">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350353</v>
       </c>
       <c r="J5">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350354</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.7460091107335</v>
+        <v>34.07074633333333</v>
       </c>
       <c r="N5">
-        <v>31.7460091107335</v>
+        <v>102.212239</v>
       </c>
       <c r="O5">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142372</v>
       </c>
       <c r="P5">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142373</v>
       </c>
       <c r="Q5">
-        <v>10841.17259686979</v>
+        <v>11773.71125438679</v>
       </c>
       <c r="R5">
-        <v>10841.17259686979</v>
+        <v>105963.4012894811</v>
       </c>
       <c r="S5">
-        <v>0.4557233631770645</v>
+        <v>0.4690091295140562</v>
       </c>
       <c r="T5">
-        <v>0.4557233631770645</v>
+        <v>0.4690091295140564</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>341.49718029295</v>
+        <v>345.566579</v>
       </c>
       <c r="H6">
-        <v>341.49718029295</v>
+        <v>1036.699737</v>
       </c>
       <c r="I6">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350353</v>
       </c>
       <c r="J6">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350354</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>27.6186633346548</v>
+        <v>27.685497</v>
       </c>
       <c r="N6">
-        <v>27.6186633346548</v>
+        <v>83.05649099999999</v>
       </c>
       <c r="O6">
-        <v>0.4358057162585005</v>
+        <v>0.420227262899125</v>
       </c>
       <c r="P6">
-        <v>0.4358057162585005</v>
+        <v>0.4202272628991251</v>
       </c>
       <c r="Q6">
-        <v>9431.695652244898</v>
+        <v>9567.182486204762</v>
       </c>
       <c r="R6">
-        <v>9431.695652244898</v>
+        <v>86104.64237584286</v>
       </c>
       <c r="S6">
-        <v>0.3964740921424486</v>
+        <v>0.3811114297613816</v>
       </c>
       <c r="T6">
-        <v>0.3964740921424486</v>
+        <v>0.3811114297613817</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>341.49718029295</v>
+        <v>345.566579</v>
       </c>
       <c r="H7">
-        <v>341.49718029295</v>
+        <v>1036.699737</v>
       </c>
       <c r="I7">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350353</v>
       </c>
       <c r="J7">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350354</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.00912533718287</v>
+        <v>4.125957666666666</v>
       </c>
       <c r="N7">
-        <v>4.00912533718287</v>
+        <v>12.377873</v>
       </c>
       <c r="O7">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="P7">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="Q7">
-        <v>1369.104998088973</v>
+        <v>1425.793075968822</v>
       </c>
       <c r="R7">
-        <v>1369.104998088973</v>
+        <v>12832.1376837194</v>
       </c>
       <c r="S7">
-        <v>0.05755218162025991</v>
+        <v>0.05679687185959738</v>
       </c>
       <c r="T7">
-        <v>0.05755218162025991</v>
+        <v>0.05679687185959739</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.32995960382183</v>
+        <v>8.428738666666668</v>
       </c>
       <c r="H8">
-        <v>8.32995960382183</v>
+        <v>25.286216</v>
       </c>
       <c r="I8">
-        <v>0.02219104040273193</v>
+        <v>0.0221206866746274</v>
       </c>
       <c r="J8">
-        <v>0.02219104040273193</v>
+        <v>0.02212068667462741</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>31.7460091107335</v>
+        <v>34.07074633333333</v>
       </c>
       <c r="N8">
-        <v>31.7460091107335</v>
+        <v>102.212239</v>
       </c>
       <c r="O8">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142372</v>
       </c>
       <c r="P8">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142373</v>
       </c>
       <c r="Q8">
-        <v>264.4429734749698</v>
+        <v>287.1734170219582</v>
       </c>
       <c r="R8">
-        <v>264.4429734749698</v>
+        <v>2584.560753197624</v>
       </c>
       <c r="S8">
-        <v>0.01111621830237742</v>
+        <v>0.01143963457460046</v>
       </c>
       <c r="T8">
-        <v>0.01111621830237742</v>
+        <v>0.01143963457460046</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.32995960382183</v>
+        <v>8.428738666666668</v>
       </c>
       <c r="H9">
-        <v>8.32995960382183</v>
+        <v>25.286216</v>
       </c>
       <c r="I9">
-        <v>0.02219104040273193</v>
+        <v>0.0221206866746274</v>
       </c>
       <c r="J9">
-        <v>0.02219104040273193</v>
+        <v>0.02212068667462741</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>27.6186633346548</v>
+        <v>27.685497</v>
       </c>
       <c r="N9">
-        <v>27.6186633346548</v>
+        <v>83.05649099999999</v>
       </c>
       <c r="O9">
-        <v>0.4358057162585005</v>
+        <v>0.420227262899125</v>
       </c>
       <c r="P9">
-        <v>0.4358057162585005</v>
+        <v>0.4202272628991251</v>
       </c>
       <c r="Q9">
-        <v>230.0623498892296</v>
+        <v>233.353819069784</v>
       </c>
       <c r="R9">
-        <v>230.0623498892296</v>
+        <v>2100.184371628056</v>
       </c>
       <c r="S9">
-        <v>0.009670982257233915</v>
+        <v>0.00929571561472782</v>
       </c>
       <c r="T9">
-        <v>0.009670982257233915</v>
+        <v>0.009295715614727824</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.32995960382183</v>
+        <v>8.428738666666668</v>
       </c>
       <c r="H10">
-        <v>8.32995960382183</v>
+        <v>25.286216</v>
       </c>
       <c r="I10">
-        <v>0.02219104040273193</v>
+        <v>0.0221206866746274</v>
       </c>
       <c r="J10">
-        <v>0.02219104040273193</v>
+        <v>0.02212068667462741</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.00912533718287</v>
+        <v>4.125957666666666</v>
       </c>
       <c r="N10">
-        <v>4.00912533718287</v>
+        <v>12.377873</v>
       </c>
       <c r="O10">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="P10">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="Q10">
-        <v>33.39585210539188</v>
+        <v>34.77661892206311</v>
       </c>
       <c r="R10">
-        <v>33.39585210539188</v>
+        <v>312.989570298568</v>
       </c>
       <c r="S10">
-        <v>0.0014038398431206</v>
+        <v>0.001385336485299119</v>
       </c>
       <c r="T10">
-        <v>0.0014038398431206</v>
+        <v>0.001385336485299119</v>
       </c>
     </row>
   </sheetData>
